--- a/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="371">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4410,14 +4410,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4899,7 +4898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A15" s="20">
         <v>32</v>
       </c>
@@ -4929,8 +4928,12 @@
         <v>72</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="N15" s="25" t="s">
         <v>340</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A17" s="20">
         <v>40</v>
       </c>
@@ -5029,8 +5032,12 @@
         <v>72</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="N17" s="25" t="s">
         <v>340</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A19" s="20">
         <v>48</v>
       </c>
@@ -5795,7 +5802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="32" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A32" s="20">
         <v>147</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A33" s="20">
         <v>148</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="34" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A34" s="20">
         <v>149</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="35" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A35" s="20">
         <v>150</v>
       </c>
@@ -5979,7 +5986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A36" s="20">
         <v>151</v>
       </c>
@@ -6033,7 +6040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="37" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A37" s="20">
         <v>152</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A38" s="20">
         <v>153</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A39" s="20">
         <v>154</v>
       </c>
@@ -6195,7 +6202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A40" s="20">
         <v>155</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="41" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A41" s="20">
         <v>156</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="42" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A42" s="20">
         <v>157</v>
       </c>
@@ -6357,7 +6364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="43" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A43" s="20">
         <v>158</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="44" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A44" s="20">
         <v>159</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A45" s="20">
         <v>160</v>
       </c>
@@ -6519,7 +6526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A46" s="20">
         <v>161</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="47" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A47" s="20">
         <v>162</v>
       </c>
@@ -6627,7 +6634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A48" s="20">
         <v>163</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="49" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A49" s="20">
         <v>164</v>
       </c>
@@ -6735,7 +6742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="50" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A50" s="20">
         <v>165</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="51" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A51" s="20">
         <v>166</v>
       </c>
@@ -6843,7 +6850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A52" s="20">
         <v>167</v>
       </c>
@@ -6897,7 +6904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="53" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A53" s="20">
         <v>168</v>
       </c>
@@ -6951,7 +6958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="81.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="54" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
       <c r="A54" s="20">
         <v>169</v>
       </c>
@@ -7005,7 +7012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="192.75" customHeight="1">
+    <row r="55" spans="1:20" ht="192.75" customHeight="1" thickBot="1">
       <c r="A55" s="20">
         <v>369</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="81.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:20" ht="81.75" customHeight="1">
       <c r="A56" s="20">
         <v>374</v>
       </c>
@@ -11746,11 +11753,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T56">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LDO"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A100:T100">
       <sortCondition ref="B9:B100"/>
     </sortState>

--- a/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1068,12 +1068,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.5d828215b40193b4c4bc6f3d97bb02e98d9c389bc1fb9ffd0646b6f8489ff836.fbfd23b324^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Il programma effettua tentativi ogni 15'</t>
-  </si>
-  <si>
-    <t>Il Server non risponde. Verrà effettuato un nuovo tentativo tra 15'. "Retry" per riprovare ora</t>
-  </si>
-  <si>
     <t>2023-06-15T17:26:55Z</t>
   </si>
   <si>
@@ -1413,12 +1407,6 @@
     <t>Errore nella generazione dei Token. Contattare il Supporto Tecnico</t>
   </si>
   <si>
-    <t>Individuazione della causa che ha determinato l'anomalia (In sistemi avviati dovuta a probabile impostazione errata dei parametri di gestione)</t>
-  </si>
-  <si>
-    <t>Viene generato un log con i dettagli dell'errore ed inviata una notifica al servizio di assistenza per la verifica e correzione</t>
-  </si>
-  <si>
     <t>Errore Validazione. Codice Fiscale paziente formalmente errato. Correggere e validare di nuovo</t>
   </si>
   <si>
@@ -1431,15 +1419,6 @@
     <t>Errore Validazione. Nome del paziente mancante. Correggere e validare di nuovo</t>
   </si>
   <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di correzione del dato errato</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione Viene generato un log con i dettagli dell'errore ed inviata una notifica al servizio di assistenza per la verifica e correzione</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione.Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di correzione del dato mancante per poter procedere con la validazione</t>
-  </si>
-  <si>
     <t>Errore Validazione. Sesso del paziente errato. Valori consentiti: [M]aschio, [F]emmina, [ND]. Correggere e validare di nuovo</t>
   </si>
   <si>
@@ -1467,9 +1446,6 @@
     <t xml:space="preserve"> Errore Validazione. Livello di riservatezza del documento non valido</t>
   </si>
   <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione Viene generato un log con i dettagli dell'errore ed inviata una notifica al servizio di assistenza per la verifica e correzione</t>
-  </si>
-  <si>
     <t>Errore Validazione.Tipo accesso errato. Valori consentiti: 'PROG', 'DIR'. Correggere e validare di nuovo</t>
   </si>
   <si>
@@ -1500,7 +1476,40 @@
     <t>Errore Validazione. Errata compilazione della  Sezione &lt;Allergie&gt; (Agente allergenico assente). Correggere e validare di nuovo</t>
   </si>
   <si>
-    <t>Errore Validazione. Codice autenticazione documento non valido.  E' stata inviata una notifica al supporto tecnico</t>
+    <t xml:space="preserve">L'operatore visualizza il messaggio &lt;Il Server non risponde.  "Retry" per riprovare ora&gt;. Se non c'è richiesta da parte dell'operatore Il programma effettua autonomamente tentativi ogni 15' </t>
+  </si>
+  <si>
+    <t>Viene descritto l'errore in dettaglio invitando il medico operatore a correggere l’errore. Convalidate e confermate le modifiche il programma chiede conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>Viene invitanto il medico operatore a correggere l’errore selezionando il valore richiesto da una lista proposta dal programma. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Livello di riservatezza assente. Correggere e validare di nuovo</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione.Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di correzione del dato mancante per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di correzione del dato errato. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di inserimento del dato mancante per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a selezionare il dato corretto da un elenco proposto dall'applicativo per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione.Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di correzione del dato errato selezionandolo da una lista proposta dal programma per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>Viene generato un log con i dettagli dell'errore ed inviata una notifica al servizio di assistenza per la verifica e correzione. Una volta corretto l'errore il controllo ritorna al medico operatore che, convalidate le  modifiche, conferma la richiesta per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di produzione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a correggere il dato  per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Codice autenticazione documento non valido.  Valore consentito 'S'</t>
   </si>
 </sst>
 </file>
@@ -4413,10 +4422,10 @@
   <dimension ref="A1:T673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4429,7 +4438,7 @@
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="97.42578125" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="46.85546875" customWidth="1"/>
@@ -4883,13 +4892,13 @@
         <v>72</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
@@ -4918,10 +4927,10 @@
         <v>45091</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="35" t="s">
@@ -4935,13 +4944,13 @@
         <v>72</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4987,13 +4996,13 @@
         <v>72</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -5022,10 +5031,10 @@
         <v>45091</v>
       </c>
       <c r="G17" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>268</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>270</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35" t="s">
@@ -5039,13 +5048,13 @@
         <v>72</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
@@ -5070,30 +5079,18 @@
       <c r="E18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="23">
-        <v>45092</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="35" t="s">
-        <v>72</v>
-      </c>
+      <c r="J18" s="35"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>202</v>
-      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="35" t="s">
-        <v>226</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="26" t="s">
@@ -5120,30 +5117,18 @@
       <c r="E19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="23">
-        <v>45092</v>
-      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="35" t="s">
-        <v>72</v>
-      </c>
+      <c r="J19" s="35"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>202</v>
-      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="25" t="s">
-        <v>226</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26" t="s">
@@ -5193,13 +5178,13 @@
         <v>72</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -5228,13 +5213,13 @@
         <v>45092</v>
       </c>
       <c r="G21" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>228</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>72</v>
@@ -5247,13 +5232,13 @@
         <v>72</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -5282,13 +5267,13 @@
         <v>45092</v>
       </c>
       <c r="G22" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>233</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>72</v>
@@ -5301,13 +5286,13 @@
         <v>72</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -5336,13 +5321,13 @@
         <v>45092</v>
       </c>
       <c r="G23" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>236</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>72</v>
@@ -5355,13 +5340,13 @@
         <v>72</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O23" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -5390,13 +5375,13 @@
         <v>45092</v>
       </c>
       <c r="G24" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>239</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>72</v>
@@ -5409,13 +5394,13 @@
         <v>72</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
@@ -5444,13 +5429,13 @@
         <v>45092</v>
       </c>
       <c r="G25" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>72</v>
@@ -5463,13 +5448,13 @@
         <v>72</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O25" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
@@ -5498,13 +5483,13 @@
         <v>45092</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>243</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>245</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>72</v>
@@ -5517,13 +5502,13 @@
         <v>72</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -5552,13 +5537,13 @@
         <v>45092</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>72</v>
@@ -5571,13 +5556,13 @@
         <v>72</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>348</v>
+      <c r="P27" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -5606,13 +5591,13 @@
         <v>45092</v>
       </c>
       <c r="G28" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>72</v>
@@ -5625,13 +5610,13 @@
         <v>72</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="25" t="s">
-        <v>348</v>
+      <c r="P28" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -5660,13 +5645,13 @@
         <v>45092</v>
       </c>
       <c r="G29" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="34" t="s">
         <v>252</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>254</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>72</v>
@@ -5679,13 +5664,13 @@
         <v>72</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
@@ -5714,13 +5699,13 @@
         <v>45092</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J30" s="35" t="s">
         <v>72</v>
@@ -5733,13 +5718,13 @@
         <v>72</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="O30" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
@@ -5768,13 +5753,13 @@
         <v>45092</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J31" s="35" t="s">
         <v>72</v>
@@ -5787,13 +5772,13 @@
         <v>72</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="O31" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="26"/>
@@ -5822,13 +5807,13 @@
         <v>45092</v>
       </c>
       <c r="G32" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" s="34" t="s">
         <v>271</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>273</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>72</v>
@@ -5868,13 +5853,13 @@
         <v>45092</v>
       </c>
       <c r="G33" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>276</v>
       </c>
       <c r="J33" s="35" t="s">
         <v>72</v>
@@ -5914,13 +5899,13 @@
         <v>45092</v>
       </c>
       <c r="G34" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="I34" s="34" t="s">
         <v>277</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>279</v>
       </c>
       <c r="J34" s="35" t="s">
         <v>72</v>
@@ -5960,13 +5945,13 @@
         <v>45092</v>
       </c>
       <c r="G35" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>280</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>282</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>72</v>
@@ -6006,13 +5991,13 @@
         <v>45092</v>
       </c>
       <c r="G36" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" s="34" t="s">
         <v>283</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>285</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>72</v>
@@ -6025,13 +6010,13 @@
         <v>72</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="O36" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -6060,13 +6045,13 @@
         <v>45092</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>72</v>
@@ -6079,13 +6064,13 @@
         <v>72</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="P37" s="25" t="s">
-        <v>347</v>
+      <c r="P37" s="35" t="s">
+        <v>367</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
@@ -6114,13 +6099,13 @@
         <v>45092</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>72</v>
@@ -6133,13 +6118,13 @@
         <v>72</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="O38" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -6168,13 +6153,13 @@
         <v>45092</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>72</v>
@@ -6187,13 +6172,13 @@
         <v>72</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -6222,13 +6207,13 @@
         <v>45092</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>72</v>
@@ -6241,13 +6226,13 @@
         <v>72</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O40" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="26"/>
@@ -6276,13 +6261,13 @@
         <v>45092</v>
       </c>
       <c r="G41" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="34" t="s">
         <v>298</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>300</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>72</v>
@@ -6295,13 +6280,13 @@
         <v>72</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O41" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="26"/>
@@ -6330,13 +6315,13 @@
         <v>45092</v>
       </c>
       <c r="G42" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I42" s="34" t="s">
         <v>301</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="I42" s="34" t="s">
-        <v>303</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>72</v>
@@ -6349,13 +6334,13 @@
         <v>72</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O42" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="26"/>
@@ -6384,13 +6369,13 @@
         <v>45092</v>
       </c>
       <c r="G43" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>72</v>
@@ -6403,13 +6388,13 @@
         <v>72</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O43" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -6438,13 +6423,13 @@
         <v>45092</v>
       </c>
       <c r="G44" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" s="34" t="s">
         <v>307</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>309</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>72</v>
@@ -6457,13 +6442,13 @@
         <v>72</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -6492,13 +6477,13 @@
         <v>45092</v>
       </c>
       <c r="G45" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" s="34" t="s">
         <v>310</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>312</v>
       </c>
       <c r="J45" s="35" t="s">
         <v>72</v>
@@ -6511,13 +6496,13 @@
         <v>72</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
@@ -6546,13 +6531,13 @@
         <v>45092</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J46" s="35" t="s">
         <v>72</v>
@@ -6565,13 +6550,13 @@
         <v>72</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="O46" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -6600,13 +6585,13 @@
         <v>45092</v>
       </c>
       <c r="G47" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="H47" s="34" t="s">
-        <v>317</v>
-      </c>
       <c r="I47" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>72</v>
@@ -6619,13 +6604,13 @@
         <v>72</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -6654,13 +6639,13 @@
         <v>45092</v>
       </c>
       <c r="G48" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="I48" s="34" t="s">
         <v>319</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>321</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>72</v>
@@ -6673,13 +6658,13 @@
         <v>72</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="O48" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
@@ -6708,13 +6693,13 @@
         <v>45092</v>
       </c>
       <c r="G49" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" s="34" t="s">
         <v>322</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="I49" s="34" t="s">
-        <v>324</v>
       </c>
       <c r="J49" s="35" t="s">
         <v>72</v>
@@ -6727,13 +6712,13 @@
         <v>72</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O49" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
@@ -6762,13 +6747,13 @@
         <v>45092</v>
       </c>
       <c r="G50" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="I50" s="34" t="s">
         <v>325</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>327</v>
       </c>
       <c r="J50" s="35" t="s">
         <v>72</v>
@@ -6781,13 +6766,13 @@
         <v>72</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O50" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="26"/>
@@ -6816,13 +6801,13 @@
         <v>45092</v>
       </c>
       <c r="G51" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="I51" s="34" t="s">
         <v>328</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>330</v>
       </c>
       <c r="J51" s="35" t="s">
         <v>72</v>
@@ -6835,13 +6820,13 @@
         <v>72</v>
       </c>
       <c r="N51" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="O51" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P51" s="25" t="s">
-        <v>348</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
@@ -6870,13 +6855,13 @@
         <v>45092</v>
       </c>
       <c r="G52" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="34" t="s">
         <v>331</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>333</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>72</v>
@@ -6889,13 +6874,13 @@
         <v>72</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="O52" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -6924,13 +6909,13 @@
         <v>45092</v>
       </c>
       <c r="G53" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="I53" s="34" t="s">
         <v>334</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>336</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>72</v>
@@ -6943,13 +6928,13 @@
         <v>72</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="O53" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26"/>
@@ -6978,13 +6963,13 @@
         <v>45092</v>
       </c>
       <c r="G54" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>337</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>339</v>
       </c>
       <c r="J54" s="35" t="s">
         <v>72</v>
@@ -6997,13 +6982,13 @@
         <v>72</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O54" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="26"/>
@@ -7032,13 +7017,13 @@
         <v>45092</v>
       </c>
       <c r="G55" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I55" s="34" t="s">
         <v>261</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="I55" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="J55" s="35" t="s">
         <v>72</v>
@@ -7076,13 +7061,13 @@
         <v>45092</v>
       </c>
       <c r="G56" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" s="34" t="s">
         <v>264</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>266</v>
       </c>
       <c r="J56" s="35" t="s">
         <v>72</v>

--- a/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111PRISMANETXX/PrismaNet/MeFiSto/V.1.3/report-checklist.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$56</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="377">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1404,24 +1404,9 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.e590d6af627970abe583b8b9a97c978aba4e2269472169c9a76dab6c5bb572cb.ae64a8a3c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Errore nella generazione dei Token. Contattare il Supporto Tecnico</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Codice Fiscale paziente formalmente errato. Correggere e validare di nuovo</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Errore Validazione. Livello di riservatezza del documento non è compatibile con la lettera di dimissione</t>
   </si>
   <si>
-    <t>Errore Validazione. Comune di residenza del paziente mancante. Correggere e validare di nuovo</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Nome del paziente mancante. Correggere e validare di nuovo</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Sesso del paziente errato. Valori consentiti: [M]aschio, [F]emmina, [ND]. Correggere e validare di nuovo</t>
-  </si>
-  <si>
     <t>Errore Validazione. Errata compilazione della  Sezione &lt;Condizioni del paziente e diagnosi alla dimissione&gt;. Correggere e validare di nuovo</t>
   </si>
   <si>
@@ -1446,27 +1431,6 @@
     <t xml:space="preserve"> Errore Validazione. Livello di riservatezza del documento non valido</t>
   </si>
   <si>
-    <t>Errore Validazione.Tipo accesso errato. Valori consentiti: 'PROG', 'DIR'. Correggere e validare di nuovo</t>
-  </si>
-  <si>
-    <t>Errore Validazione.Classe Priorità errata. Valori consentiti: 'R', 'P', 'UR', 'EM'. Correggere e validare di nuovo</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Identificativo della prescrizione assente. E' stata inviata una notifica al supporto tecnico</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Sezione Referto assente. E' stata inviata una notifica al supporto tecnico</t>
-  </si>
-  <si>
-    <t>Errore Validazione.Codice della prestazione assente. E' stata inviata una notifica al supporto tecnico</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Blocco Narrativo assente. E' stata inviata una notifica al supporto tecnico</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Blocco Prestazioni eseguite assente. E' stata inviata una notifica al supporto tecnico</t>
-  </si>
-  <si>
     <t>Errore Validazione. Errata compilazione della  Sezione &lt;Anamnesi Familiare&gt; (Grado di parentela assente). Correggere e validare di nuovo</t>
   </si>
   <si>
@@ -1479,37 +1443,82 @@
     <t xml:space="preserve">L'operatore visualizza il messaggio &lt;Il Server non risponde.  "Retry" per riprovare ora&gt;. Se non c'è richiesta da parte dell'operatore Il programma effettua autonomamente tentativi ogni 15' </t>
   </si>
   <si>
-    <t>Viene descritto l'errore in dettaglio invitando il medico operatore a correggere l’errore. Convalidate e confermate le modifiche il programma chiede conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>Viene invitanto il medico operatore a correggere l’errore selezionando il valore richiesto da una lista proposta dal programma. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
     <t>Errore Validazione. Livello di riservatezza assente. Correggere e validare di nuovo</t>
   </si>
   <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione.Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di correzione del dato mancante per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di correzione del dato errato. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di inserimento del dato mancante per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a selezionare il dato corretto da un elenco proposto dall'applicativo per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione.Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di correzione del dato errato selezionandolo da una lista proposta dal programma per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>Viene generato un log con i dettagli dell'errore ed inviata una notifica al servizio di assistenza per la verifica e correzione. Una volta corretto l'errore il controllo ritorna al medico operatore che, convalidate le  modifiche, conferma la richiesta per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>La corretta valorizzazione del dato viene controllata dal software in fase di produzione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a correggere il dato  per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento.</t>
-  </si>
-  <si>
-    <t>Errore Validazione. Codice autenticazione documento non valido.  Valore consentito 'S'</t>
+    <t>(Amministratore di sistema) Individuazione e correzione della causa che ha determinato l'anomalia (In sistemi avviati dovuta a probabile impostazione errata dei parametri di gestione). Poiché l'errore si verifica in fase di validazione o pubblicazione, il processo di produzione del documento è già concluso. Se l'errore si presenta in fase di validazione il medico operatore invoca nuovamente il servizio. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Sezione Referto assente. Valorizzare correttamente per proseguire.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Blocco Narrativo assente. Valorizzare correttamente per proseguire.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Blocco Prestazioni eseguite assente.Valorizzare correttamente per proseguire.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente con richiesta di inserimento del dato mancante per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a selezionare il dato corretto da un elenco proposto dall'applicativo per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato all'utente invitandolo a selezionare il dato corretto da una lista proposta dall'applicativo per poter procedere con la validazione. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Identificativo della prescrizione assente. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione.Classe Priorità errata. Valori consentiti: 'R', 'P', 'UR', 'EM'.  E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione.Tipo accesso errato. Valori consentiti: 'PROG', 'DIR'. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Sesso del paziente errato. Valori consentiti: [M]aschio, [F]emmina, [ND]. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Comune di residenza del paziente mancante. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Codice Fiscale paziente formalmente errato. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Nome del paziente mancante. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Codice della prestazione assente. E' stata inviata una notifica alla Segreteria Medica</t>
+  </si>
+  <si>
+    <t>Errore nella generazione dei Token. E' stata inviata una notifica al Supporto Tecnico</t>
+  </si>
+  <si>
+    <t>Errore nella generazione dei Token. E' stata inviata una notifica al Supporto Tecnico+N54</t>
+  </si>
+  <si>
+    <t>(Amministratore di sistema) Individuazione e correzione della causa che ha determinato l'anomalia (In sistemi avviati dovuta a probabile impostazione errata dei parametri di gestione). Convalidata e confermata la correzione il medico potrà procedere per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>Errore Validazione. Codice autenticazione documento non valido.  Valore consentito 'S'. E' stata inviata una notifica al Supporto Tecnico.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene invitanto il medico operatore a correggere l’errore selezionando il valore richiesto da una lista proposta dal programma. Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>La corretta valorizzazione del dato viene controllata dal software in fase di compilazione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene invitanto il medico operatore a correggere l’errore selezionando il valore richiesto da una lista proposta dal programma.  Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>(Segreteria Medica) La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di correzione del dato errato (tutte le informazione di carattere anagrafico/amministrativo vengono gestite dalla sergeteria medica). Convalidate e confermate le modifiche il medico potrà procedere per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>(Segreteria Medica) La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di inserimento del dato mancante (tutte le informazione di carattere anagrafico/amministrativo vengono gestite dalla sergeteria medica). Convalidate e confermate le modifiche  il medico potrà procedere per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>(Segreteria Medica) La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di inserimento del dato mancante (tutte le informazione di carattere anagrafico/amministrativo vengono gestite dalla sergeteria medica). Convalidate e confermate le modifiche viene richiesta conferma per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
+  </si>
+  <si>
+    <t>(Segreteria Medica) La corretta valorizzazione del dato viene controllata dal software in fase di acquisizione. Nel caso in cui  l'errore venisse rilevato dal sistema di validazione viene segnalato con richiesta di inserimento del dato mancante (tutte le informazione di carattere anagrafico/amministrativo vengono gestite dalla sergeteria medica). Convalidate e confermate le modifiche il medico potrà procedere per la produzione e la validazione del documento. I documenti validati vengono sempre inviati/pubblicati dalla segreteria medica mediante apposito modulo dell'applicazione.</t>
   </si>
 </sst>
 </file>
@@ -4422,10 +4431,10 @@
   <dimension ref="A1:T673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4437,7 +4446,10 @@
     <col min="5" max="5" width="58.42578125" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="15" width="36.42578125" customWidth="1"/>
     <col min="16" max="16" width="97.42578125" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
@@ -4679,7 +4691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:20" ht="109.5" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>6</v>
       </c>
@@ -4723,7 +4735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:20" ht="109.5" customHeight="1" thickBot="1">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:20" ht="109.5" customHeight="1" thickBot="1">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -4811,7 +4823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:20" ht="109.5" customHeight="1" thickBot="1">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A14" s="20">
         <v>29</v>
       </c>
@@ -4892,13 +4904,13 @@
         <v>72</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
@@ -4907,7 +4919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A15" s="20">
         <v>32</v>
       </c>
@@ -4944,13 +4956,13 @@
         <v>72</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4959,7 +4971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A16" s="20">
         <v>37</v>
       </c>
@@ -4996,13 +5008,13 @@
         <v>72</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -5011,7 +5023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A17" s="20">
         <v>40</v>
       </c>
@@ -5048,13 +5060,13 @@
         <v>72</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
@@ -5063,7 +5075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A18" s="20">
         <v>45</v>
       </c>
@@ -5090,7 +5102,7 @@
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="26" t="s">
@@ -5101,7 +5113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A19" s="20">
         <v>48</v>
       </c>
@@ -5128,7 +5140,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26" t="s">
@@ -5139,7 +5151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A20" s="20">
         <v>63</v>
       </c>
@@ -5178,13 +5190,13 @@
         <v>72</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -5193,7 +5205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A21" s="20">
         <v>64</v>
       </c>
@@ -5232,13 +5244,13 @@
         <v>72</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -5247,7 +5259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A22" s="20">
         <v>65</v>
       </c>
@@ -5286,13 +5298,13 @@
         <v>72</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -5301,7 +5313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A23" s="20">
         <v>66</v>
       </c>
@@ -5340,13 +5352,13 @@
         <v>72</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="O23" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -5355,7 +5367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A24" s="20">
         <v>67</v>
       </c>
@@ -5394,13 +5406,13 @@
         <v>72</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
@@ -5409,7 +5421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A25" s="20">
         <v>68</v>
       </c>
@@ -5448,13 +5460,13 @@
         <v>72</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O25" s="35" t="s">
         <v>72</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
@@ -5463,7 +5475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A26" s="20">
         <v>69</v>
       </c>
@@ -5502,13 +5514,13 @@
         <v>72</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -5517,7 +5529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A27" s="20">
         <v>70</v>
       </c>
@@ -5556,13 +5568,13 @@
         <v>72</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -5571,7 +5583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A28" s="20">
         <v>71</v>
       </c>
@@ -5610,13 +5622,13 @@
         <v>72</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P28" s="35" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -5625,7 +5637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A29" s="20">
         <v>72</v>
       </c>
@@ -5664,13 +5676,13 @@
         <v>72</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
@@ -5679,7 +5691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A30" s="20">
         <v>73</v>
       </c>
@@ -5718,13 +5730,13 @@
         <v>72</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O30" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
@@ -5733,7 +5745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A31" s="20">
         <v>74</v>
       </c>
@@ -5772,13 +5784,13 @@
         <v>72</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O31" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="26"/>
@@ -5787,7 +5799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A32" s="20">
         <v>147</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A33" s="20">
         <v>148</v>
       </c>
@@ -5879,7 +5891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A34" s="20">
         <v>149</v>
       </c>
@@ -5925,7 +5937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="35" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A35" s="20">
         <v>150</v>
       </c>
@@ -5971,7 +5983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A36" s="20">
         <v>151</v>
       </c>
@@ -6010,13 +6022,13 @@
         <v>72</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O36" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -6025,7 +6037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="37" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A37" s="20">
         <v>152</v>
       </c>
@@ -6064,13 +6076,13 @@
         <v>72</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P37" s="35" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
@@ -6079,7 +6091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="38" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A38" s="20">
         <v>153</v>
       </c>
@@ -6118,13 +6130,13 @@
         <v>72</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O38" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -6133,7 +6145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="39" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A39" s="20">
         <v>154</v>
       </c>
@@ -6172,13 +6184,13 @@
         <v>72</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -6187,7 +6199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="40" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A40" s="20">
         <v>155</v>
       </c>
@@ -6226,13 +6238,13 @@
         <v>72</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="O40" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="26"/>
@@ -6241,7 +6253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A41" s="20">
         <v>156</v>
       </c>
@@ -6280,13 +6292,13 @@
         <v>72</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O41" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="26"/>
@@ -6295,7 +6307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A42" s="20">
         <v>157</v>
       </c>
@@ -6334,13 +6346,13 @@
         <v>72</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="O42" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="26"/>
@@ -6349,7 +6361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="43" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A43" s="20">
         <v>158</v>
       </c>
@@ -6388,13 +6400,13 @@
         <v>72</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="O43" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -6403,7 +6415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="44" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A44" s="20">
         <v>159</v>
       </c>
@@ -6442,13 +6454,13 @@
         <v>72</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -6457,7 +6469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="45" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A45" s="20">
         <v>160</v>
       </c>
@@ -6496,13 +6508,13 @@
         <v>72</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
@@ -6511,7 +6523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="46" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A46" s="20">
         <v>161</v>
       </c>
@@ -6550,13 +6562,13 @@
         <v>72</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O46" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -6565,7 +6577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="47" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A47" s="20">
         <v>162</v>
       </c>
@@ -6604,13 +6616,13 @@
         <v>72</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O47" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -6619,7 +6631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A48" s="20">
         <v>163</v>
       </c>
@@ -6658,13 +6670,13 @@
         <v>72</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O48" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
@@ -6673,7 +6685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="49" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A49" s="20">
         <v>164</v>
       </c>
@@ -6712,13 +6724,13 @@
         <v>72</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
@@ -6727,7 +6739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A50" s="20">
         <v>165</v>
       </c>
@@ -6766,13 +6778,13 @@
         <v>72</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="O50" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="26"/>
@@ -6781,7 +6793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A51" s="20">
         <v>166</v>
       </c>
@@ -6820,13 +6832,13 @@
         <v>72</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
@@ -6835,7 +6847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A52" s="20">
         <v>167</v>
       </c>
@@ -6874,13 +6886,13 @@
         <v>72</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="O52" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -6889,7 +6901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A53" s="20">
         <v>168</v>
       </c>
@@ -6928,13 +6940,13 @@
         <v>72</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O53" s="25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="26"/>
@@ -6943,7 +6955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="81.75" customHeight="1" thickBot="1">
+    <row r="54" spans="1:20" ht="86.25" customHeight="1" thickBot="1">
       <c r="A54" s="20">
         <v>169</v>
       </c>
@@ -6982,13 +6994,13 @@
         <v>72</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O54" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="26"/>
